--- a/SDET_9_PRoject/testData/TestData.xlsx
+++ b/SDET_9_PRoject/testData/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Contact" sheetId="1" r:id="rId1"/>
-    <sheet name="SingUP" sheetId="3" r:id="rId2"/>
-    <sheet name="addToCart" sheetId="4" r:id="rId3"/>
-    <sheet name="addToCartTest" sheetId="5" r:id="rId4"/>
-    <sheet name="Org" sheetId="2" r:id="rId5"/>
+    <sheet name="Quote" sheetId="7" r:id="rId1"/>
+    <sheet name="Product" sheetId="6" r:id="rId2"/>
+    <sheet name="Contact" sheetId="1" r:id="rId3"/>
+    <sheet name="SingUP" sheetId="3" r:id="rId4"/>
+    <sheet name="addToCart" sheetId="4" r:id="rId5"/>
+    <sheet name="addToCartTest" sheetId="5" r:id="rId6"/>
+    <sheet name="Org" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="172">
   <si>
     <t>TestID</t>
   </si>
@@ -432,12 +433,120 @@
   </si>
   <si>
     <t>tc_10</t>
+  </si>
+  <si>
+    <t>createProduct</t>
+  </si>
+  <si>
+    <t>tc_03</t>
+  </si>
+  <si>
+    <t>tc_04</t>
+  </si>
+  <si>
+    <t>ProdName</t>
+  </si>
+  <si>
+    <t>ProdCategory</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Control_Panels</t>
+  </si>
+  <si>
+    <t>307-Service Hardware Labour</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>LaxPon Inc</t>
+  </si>
+  <si>
+    <t>GLAccount</t>
+  </si>
+  <si>
+    <t>createVendor</t>
+  </si>
+  <si>
+    <t>VendorName</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>300-Sales-Software</t>
+  </si>
+  <si>
+    <t>tc_05</t>
+  </si>
+  <si>
+    <t>createQuote</t>
+  </si>
+  <si>
+    <t>SubName</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>BlueDart</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>QuoteStage</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>createInvoices</t>
+  </si>
+  <si>
+    <t>SubjName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motog   </t>
+  </si>
+  <si>
+    <t>BillingAdd</t>
+  </si>
+  <si>
+    <t>Hadapsar,Pune</t>
+  </si>
+  <si>
+    <t>ShippingAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motorola   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moto1 </t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>tc_06</t>
+  </si>
+  <si>
+    <t>tc_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +682,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -750,7 +859,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,22 +867,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +1060,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -805,7 +1076,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -815,7 +1086,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -825,7 +1096,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1120,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,7 +1144,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -883,7 +1154,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +1170,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -915,7 +1186,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -925,326 +1196,204 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1306,9 +1455,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0">
       <selection activeCell="C30" sqref="A1:C30"/>
@@ -1649,92 +1798,13 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C50"/>
   <sheetViews>
@@ -2299,7 +2369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
